--- a/OpenCart-Test-Scenarios.xlsx
+++ b/OpenCart-Test-Scenarios.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4b85abe1dd47c73/Desktop/OpenCart testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4b85abe1dd47c73/Desktop/kk/OpenCart-testing-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC1048EAF11C476A5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B29F539-3135-4395-9267-7234D6C43080}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_F25DC773A252ABDACC1048EAF11C476A5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDFFBC41-5D27-4B2D-92E0-4E9BE1B25669}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Project Name</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>Search Functionality</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>Validate the working of Add to Cart functionality</t>
   </si>
 </sst>
 </file>
@@ -263,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,9 +300,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -576,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,8 +773,28 @@
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="5">
         <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="5">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
